--- a/Code Scratch File/data.xlsx
+++ b/Code Scratch File/data.xlsx
@@ -49,19 +49,19 @@
     <t>45</t>
   </si>
   <si>
-    <t>5/29/2020</t>
-  </si>
-  <si>
-    <t>5/30/2020</t>
-  </si>
-  <si>
-    <t>5/31/2020</t>
+    <t>6/1/2020</t>
+  </si>
+  <si>
+    <t>6/2/2020</t>
+  </si>
+  <si>
+    <t>6/3/2020</t>
+  </si>
+  <si>
+    <t>DUAL</t>
   </si>
   <si>
     <t>SINGLE</t>
-  </si>
-  <si>
-    <t>DUAL</t>
   </si>
   <si>
     <t>NO</t>
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -537,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -579,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -663,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -789,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -803,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -845,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -859,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -873,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -887,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -915,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -929,7 +929,7 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -943,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
